--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.1 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6399" uniqueCount="1983">
   <si>
     <t>PS</t>
   </si>
@@ -5963,9 +5963,6 @@
     <t>NE</t>
   </si>
   <si>
-    <t>NE+SE?</t>
-  </si>
-  <si>
     <t>S[Sh]+N[s]</t>
   </si>
   <si>
@@ -5976,19 +5973,28 @@
   </si>
   <si>
     <t>Re?</t>
+  </si>
+  <si>
+    <t>PS-11.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -6178,200 +6184,203 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6656,10 +6665,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U2195" sqref="U2195"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -53591,7 +53600,7 @@
       <c r="R1280" s="7"/>
       <c r="V1280" s="48"/>
     </row>
-    <row r="1281" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1281" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1281" s="21"/>
       <c r="F1281" s="21"/>
       <c r="G1281" s="21"/>
@@ -53623,7 +53632,7 @@
       <c r="R1281" s="7"/>
       <c r="V1281" s="48"/>
     </row>
-    <row r="1282" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1282" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1282" s="21"/>
       <c r="F1282" s="21"/>
       <c r="G1282" s="21"/>
@@ -53659,7 +53668,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="1283" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1283" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1283" s="21"/>
       <c r="F1283" s="21"/>
       <c r="G1283" s="21"/>
@@ -53697,7 +53706,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="1284" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1284" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1284" s="21"/>
       <c r="F1284" s="21"/>
       <c r="G1284" s="21"/>
@@ -53729,7 +53738,7 @@
       <c r="R1284" s="7"/>
       <c r="V1284" s="48"/>
     </row>
-    <row r="1285" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1285" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1285" s="21"/>
       <c r="F1285" s="21"/>
       <c r="G1285" s="21"/>
@@ -53761,7 +53770,7 @@
       <c r="R1285" s="7"/>
       <c r="V1285" s="48"/>
     </row>
-    <row r="1286" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1286" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1286" s="21"/>
       <c r="F1286" s="21"/>
       <c r="G1286" s="21"/>
@@ -53797,7 +53806,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="1287" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1287" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1287" s="21"/>
       <c r="F1287" s="21"/>
       <c r="G1287" s="21"/>
@@ -53829,7 +53838,7 @@
       <c r="R1287" s="7"/>
       <c r="V1287" s="48"/>
     </row>
-    <row r="1288" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1288" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1288" s="21"/>
       <c r="F1288" s="21"/>
       <c r="G1288" s="21"/>
@@ -53861,7 +53870,7 @@
       <c r="R1288" s="7"/>
       <c r="V1288" s="48"/>
     </row>
-    <row r="1289" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1289" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1289" s="21"/>
       <c r="F1289" s="21"/>
       <c r="G1289" s="21"/>
@@ -53897,7 +53906,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="1290" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1290" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1290" s="21"/>
       <c r="F1290" s="21"/>
       <c r="G1290" s="21"/>
@@ -53931,7 +53940,7 @@
       <c r="R1290" s="7"/>
       <c r="V1290" s="48"/>
     </row>
-    <row r="1291" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1291" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1291" s="21"/>
       <c r="F1291" s="21"/>
       <c r="G1291" s="21"/>
@@ -53965,7 +53974,10 @@
       <c r="R1291" s="7"/>
       <c r="V1291" s="48"/>
     </row>
-    <row r="1292" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1292" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="D1292" s="67" t="s">
+        <v>1982</v>
+      </c>
       <c r="E1292" s="21"/>
       <c r="F1292" s="21"/>
       <c r="G1292" s="21"/>
@@ -54000,13 +54012,13 @@
       <c r="Q1292" s="7"/>
       <c r="R1292" s="7"/>
       <c r="U1292" s="46" t="s">
-        <v>1978</v>
+        <v>1928</v>
       </c>
       <c r="V1292" s="48" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1293" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1293" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1293" s="21"/>
       <c r="F1293" s="21"/>
       <c r="G1293" s="21"/>
@@ -54038,7 +54050,7 @@
       <c r="R1293" s="7"/>
       <c r="V1293" s="48"/>
     </row>
-    <row r="1294" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1294" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1294" s="21"/>
       <c r="F1294" s="21"/>
       <c r="G1294" s="21"/>
@@ -54070,7 +54082,7 @@
       <c r="R1294" s="7"/>
       <c r="V1294" s="48"/>
     </row>
-    <row r="1295" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1295" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1295" s="21"/>
       <c r="F1295" s="21"/>
       <c r="G1295" s="21"/>
@@ -54106,7 +54118,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="1296" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1296" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1296" s="21"/>
       <c r="F1296" s="21"/>
       <c r="G1296" s="21"/>
@@ -62521,7 +62533,7 @@
         <v>1890</v>
       </c>
       <c r="T1538" s="7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="V1538" s="48"/>
     </row>
@@ -68937,7 +68949,7 @@
         <v>1885</v>
       </c>
       <c r="T1776" s="7" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="V1776" s="48"/>
     </row>
@@ -76163,7 +76175,7 @@
         <v>1890</v>
       </c>
       <c r="T2049" s="7" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="V2049" s="48"/>
     </row>
@@ -79909,7 +79921,7 @@
         <v>1261</v>
       </c>
       <c r="U2195" s="7" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="V2195" s="48"/>
     </row>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.1 Padam Input Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D3F14-EAF2-45DF-9600-E048F4E14228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8670"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 1.1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.1'!$C$1:$V$2294</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6399" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="1984">
   <si>
     <t>PS</t>
   </si>
@@ -5963,9 +5964,6 @@
     <t>NE</t>
   </si>
   <si>
-    <t>S[Sh]+N[s]</t>
-  </si>
-  <si>
     <t>S+N</t>
   </si>
   <si>
@@ -5976,12 +5974,18 @@
   </si>
   <si>
     <t>PS-11.4</t>
+  </si>
+  <si>
+    <t>S[Sh]</t>
+  </si>
+  <si>
+    <t>NE+NRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6662,13 +6666,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1552" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="U1536" sqref="U1536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -53976,7 +53980,7 @@
     </row>
     <row r="1292" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D1292" s="67" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E1292" s="21"/>
       <c r="F1292" s="21"/>
@@ -62427,6 +62431,9 @@
       <c r="P1535" s="7"/>
       <c r="Q1535" s="7"/>
       <c r="R1535" s="7"/>
+      <c r="U1535" s="7" t="s">
+        <v>1878</v>
+      </c>
       <c r="V1535" s="48"/>
     </row>
     <row r="1536" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62533,7 +62540,7 @@
         <v>1890</v>
       </c>
       <c r="T1538" s="7" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="V1538" s="48"/>
     </row>
@@ -63340,6 +63347,9 @@
       <c r="P1562" s="7"/>
       <c r="Q1562" s="7"/>
       <c r="R1562" s="7"/>
+      <c r="U1562" s="7" t="s">
+        <v>1983</v>
+      </c>
       <c r="V1562" s="48"/>
     </row>
     <row r="1563" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68949,7 +68959,7 @@
         <v>1885</v>
       </c>
       <c r="T1776" s="7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="V1776" s="48"/>
     </row>
@@ -76175,7 +76185,7 @@
         <v>1890</v>
       </c>
       <c r="T2049" s="7" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="V2049" s="48"/>
     </row>
@@ -79921,7 +79931,7 @@
         <v>1261</v>
       </c>
       <c r="U2195" s="7" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="V2195" s="48"/>
     </row>
